--- a/Data/L-matrix.xlsx
+++ b/Data/L-matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS_in_prep\Orquis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MS_in_prep\Orquis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
   <si>
     <t>tree</t>
   </si>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ71"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +639,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1296,16 +1296,16 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1406,16 +1406,16 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1516,16 +1516,16 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -1956,16 +1956,16 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2176,16 +2176,16 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -2396,16 +2396,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2426,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -3056,16 +3056,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3208,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -3276,22 +3276,22 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3315,16 +3315,16 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3386,22 +3386,22 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3606,25 +3606,25 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -3716,10 +3716,10 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -3936,19 +3936,19 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4020,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -4046,19 +4046,19 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4085,13 +4085,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4266,10 +4266,10 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -4365,21 +4365,21 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4552,13 +4552,13 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37">
         <v>0</v>
@@ -4596,13 +4596,13 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4650,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -4662,28 +4662,28 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -4706,10 +4706,10 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4784,16 +4784,16 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -4909,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -5036,16 +5036,16 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42">
         <v>1</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5206,19 +5206,19 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -5358,18 +5358,18 @@
         <v>1</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -5476,13 +5476,13 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -5586,10 +5586,10 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
         <v>0</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5857,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49">
         <v>1</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
         <v>0</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53">
         <v>1</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -6416,13 +6416,13 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -6434,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -6663,10 +6663,10 @@
         <v>0</v>
       </c>
       <c r="AD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -6675,10 +6675,10 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56">
         <v>0</v>
@@ -6686,16 +6686,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="AH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57">
         <v>0</v>
@@ -6796,13 +6796,13 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="AH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58">
         <v>0</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59">
         <v>0</v>
@@ -7016,16 +7016,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -7126,16 +7126,16 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ61">
         <v>0</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7323,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="AH62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -7346,10 +7346,10 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -7456,10 +7456,10 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -7543,22 +7543,22 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -7566,16 +7566,16 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -7638,13 +7638,13 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="AD65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65">
         <v>0</v>
@@ -7676,10 +7676,10 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -7763,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -7786,10 +7786,10 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -7896,10 +7896,10 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -8006,10 +8006,10 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -8116,13 +8116,13 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8226,111 +8226,1981 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>1</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>1</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>1</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>58</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
         <v>39</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-      <c r="AJ71">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>0</v>
       </c>
     </row>
